--- a/research-test.xlsx
+++ b/research-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandu\Documents\#BINUS\Semester 4\Research Methodology in Computer Science\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733EC57-7AE1-45E3-A2B5-404C7282DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D1793-B564-4BD2-BED0-8482F151F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="eil76_summary" sheetId="10" r:id="rId1"/>
@@ -68,30 +68,6 @@
     <t>hardware</t>
   </si>
   <si>
-    <t>processor</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>8gb</t>
-  </si>
-  <si>
-    <t>gpu</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>windows 11</t>
-  </si>
-  <si>
-    <t>i3-10110u @ 2.1 ghz</t>
-  </si>
-  <si>
-    <t>intel uhd 620</t>
-  </si>
-  <si>
     <t>Simulated Annealing</t>
   </si>
   <si>
@@ -132,6 +108,30 @@
   </si>
   <si>
     <t>Route</t>
+  </si>
+  <si>
+    <t>Intel i3-10110U @2.1Ghz</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>Intel UHD 620</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Operating System</t>
   </si>
 </sst>
 </file>
@@ -296,37 +296,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +316,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,26 +408,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -437,20 +416,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>SA</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -526,25 +496,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C61-4541-B514-491057BC3AEF}"/>
+              <c16:uniqueId val="{00000006-AAF9-4FC6-A2F4-F56E9C035D34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>PSO</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -620,25 +581,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-8C61-4541-B514-491057BC3AEF}"/>
+              <c16:uniqueId val="{00000007-AAF9-4FC6-A2F4-F56E9C035D34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>Greedy</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -714,12 +666,11 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-8C61-4541-B514-491057BC3AEF}"/>
+              <c16:uniqueId val="{00000008-AAF9-4FC6-A2F4-F56E9C035D34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -777,26 +728,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -897,26 +828,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -953,13 +864,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -996,21 +900,6 @@
     <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2433,43 +2322,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -3023,522 +2875,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4999,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E2A21-6F56-46C6-AC9B-ACD07EBC0E23}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5026,16 +4362,16 @@
         <f>greedy!D1</f>
         <v>0</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
@@ -5072,20 +4408,20 @@
         <f>greedy!D3</f>
         <v>Time</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="13" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5106,14 +4442,14 @@
         <f>greedy!D4</f>
         <v>6.4</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="16"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -5132,60 +4468,60 @@
         <f>greedy!D5</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>26</v>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4">
         <f>$B$5</f>
         <v>711.99329263275195</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
         <f>$D$5</f>
         <v>6.4</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>17</v>
+      <c r="O7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
         <f>E15</f>
@@ -5218,7 +4554,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I9" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3">
         <f>E41</f>
@@ -5322,13 +4658,13 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -5402,13 +4738,13 @@
         <v>0.74</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -5706,13 +5042,13 @@
         <v>11.906000000000001</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -5786,13 +5122,13 @@
         <v>9.343</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -6026,7 +5362,8 @@
     <mergeCell ref="M4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6045,15 +5382,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6181,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09576F6A-7937-4023-A9B9-E70FEC248EE7}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6197,16 +5534,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
@@ -6243,20 +5580,20 @@
         <f>greedy!D7</f>
         <v>Time</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="2" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6277,14 +5614,14 @@
         <f>greedy!D8</f>
         <v>73.432000000000002</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="2"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -6303,55 +5640,55 @@
         <f>greedy!D9</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>26</v>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4">
         <f>B5</f>
         <v>62176.401032322203</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
         <f>D5</f>
         <v>73.432000000000002</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>17</v>
+      <c r="O7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -6368,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
         <f>E13</f>
@@ -6413,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3">
         <f>D41</f>
@@ -6489,13 +5826,13 @@
         <v>6.45</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -6569,13 +5906,13 @@
         <v>6.593</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6818,8 +6155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0E6E08-FBB2-4341-B5E0-1997E3A0AAD4}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6834,16 +6171,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
@@ -6880,20 +6217,20 @@
         <f>greedy!D11</f>
         <v>Time</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="2" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6914,38 +6251,38 @@
         <f>greedy!D12</f>
         <v>296.63499999999999</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="2"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I6" s="9" t="s">
-        <v>26</v>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
@@ -6963,28 +6300,28 @@
       <c r="I7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4">
         <f>B5</f>
         <v>70015.457122156004</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
         <f>D5</f>
         <v>296.63499999999999</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>17</v>
+      <c r="O7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -7001,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
         <f>E12</f>
@@ -7046,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3">
         <f>D41</f>
@@ -7108,13 +6445,13 @@
         <v>14.106</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -7188,13 +6525,13 @@
         <v>14.247999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -7434,31 +6771,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B639183-1E52-40D6-9F83-716478596D2C}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7472,16 +6822,22 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7489,21 +6845,35 @@
         <v>711.99329263275195</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -7517,7 +6887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7525,21 +6895,21 @@
         <v>62176.401032322203</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>73.432000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +6923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7561,47 +6931,10 @@
         <v>70015.457122156004</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>296.63499999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7625,18 +6958,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7902,18 +7235,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8179,18 +7512,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8445,7 +7778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025CF1C2-F410-4B52-A97C-6D5BBF99AFE8}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -8456,18 +7789,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8478,7 +7811,7 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8736,15 +8069,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/research-test.xlsx
+++ b/research-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandu\Documents\#BINUS\Semester 4\Research Methodology in Computer Science\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D1793-B564-4BD2-BED0-8482F151F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DFAF13-7218-4FF1-90A3-F6B72812010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="8" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="eil76_summary" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
   <si>
     <t>Algo</t>
   </si>
@@ -110,28 +110,22 @@
     <t>Route</t>
   </si>
   <si>
-    <t>Intel i3-10110U @2.1Ghz</t>
-  </si>
-  <si>
-    <t>8 GB</t>
-  </si>
-  <si>
-    <t>Intel UHD 620</t>
-  </si>
-  <si>
-    <t>Windows 11</t>
-  </si>
-  <si>
     <t>Processor</t>
   </si>
   <si>
     <t>Memory</t>
   </si>
   <si>
-    <t>GPU</t>
+    <t>parameter:</t>
   </si>
   <si>
-    <t>Operating System</t>
+    <t>PSO(iterations=2000, population_size=500, pbest_probability=0.9, gbest_probability=0.01, cities=cities)</t>
+  </si>
+  <si>
+    <t>Intel Xeon CPU @2.20 GHz</t>
+  </si>
+  <si>
+    <t>13 GB RAM</t>
   </si>
 </sst>
 </file>
@@ -431,64 +425,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>593.47902230443901</c:v>
+                  <c:v>597.86172762766296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>591.03680070017595</c:v>
+                  <c:v>591.64994255452802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>590.98106375619398</c:v>
+                  <c:v>573.33006322030201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>565.45409997413105</c:v>
+                  <c:v>573.61289425857296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>584.30106833718901</c:v>
+                  <c:v>597.17661148790296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>582.84125319570296</c:v>
+                  <c:v>607.20486384412095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>597.49471783136198</c:v>
+                  <c:v>594.26286529449806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>582.64907772505603</c:v>
+                  <c:v>580.27537842226695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>613.87262759977102</c:v>
+                  <c:v>598.74538178718296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>605.239759210785</c:v>
+                  <c:v>585.62132228059397</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>609.46677547838794</c:v>
+                  <c:v>585.28411895591898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>602.29299017231904</c:v>
+                  <c:v>575.62847379255504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>581.87691428764003</c:v>
+                  <c:v>575.49285909293997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>589.27919720813304</c:v>
+                  <c:v>576.37113804650596</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>597.13904251917404</c:v>
+                  <c:v>602.69644538645503</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>587.72333490799497</c:v>
+                  <c:v>601.60505613224097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>588.35506868923505</c:v>
+                  <c:v>563.18260381534503</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>596.21744384306396</c:v>
+                  <c:v>619.89924440373204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>606.35304674270606</c:v>
+                  <c:v>594.408385249091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>599.38156060120195</c:v>
+                  <c:v>577.05956431495304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,64 +510,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>670.35860563867595</c:v>
+                  <c:v>681.62819602716399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>701.84486544904098</c:v>
+                  <c:v>668.87120718017002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>684.490557462742</c:v>
+                  <c:v>674.99722794707498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>687.36195695629897</c:v>
+                  <c:v>694.55823977941498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>659.63215610324801</c:v>
+                  <c:v>664.816841434504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>687.56142580305902</c:v>
+                  <c:v>676.71142675726003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>693.11877503091398</c:v>
+                  <c:v>688.19974046070899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>691.64946979530202</c:v>
+                  <c:v>687.29335902993603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>699.68663741202204</c:v>
+                  <c:v>695.49205139690298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>684.84514349757103</c:v>
+                  <c:v>683.50372289596703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>686.42058055207099</c:v>
+                  <c:v>694.10728911748095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>675.78015547632594</c:v>
+                  <c:v>678.68825988177298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>689.39945704564298</c:v>
+                  <c:v>700.77665370992702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>701.38516144561402</c:v>
+                  <c:v>706.18988243941703</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>694.95680627349805</c:v>
+                  <c:v>679.44117218673398</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>694.97880534018395</c:v>
+                  <c:v>699.96619061486399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>689.81951790120399</c:v>
+                  <c:v>695.43579100003603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>706.04916852184795</c:v>
+                  <c:v>711.99329263275195</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>698.31962131560795</c:v>
+                  <c:v>700.03589135472305</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>704.99647865639497</c:v>
+                  <c:v>671.41389701450305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,64 +1016,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>61163.809520189498</c:v>
+                  <c:v>61065.8541381084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62824.049888502901</c:v>
+                  <c:v>61941.573036727503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60495.201078416598</c:v>
+                  <c:v>61378.983358066602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62017.677191643801</c:v>
+                  <c:v>61852.542950335199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61270.356693232003</c:v>
+                  <c:v>61190.492664626698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61250.821173393502</c:v>
+                  <c:v>61840.701930540803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60364.425322885298</c:v>
+                  <c:v>61840.701930540803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61133.615062212499</c:v>
+                  <c:v>60032.766757632897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61619.3274852049</c:v>
+                  <c:v>60945.649022426798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60727.428174982801</c:v>
+                  <c:v>60697.808383826603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61946.202056790098</c:v>
+                  <c:v>59737.978054155501</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62329.832459593301</c:v>
+                  <c:v>60046.570997645103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61346.277201323501</c:v>
+                  <c:v>60683.202725751296</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63435.7363046799</c:v>
+                  <c:v>62544.170287561901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62109.047344108498</c:v>
+                  <c:v>61466.342609156804</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61159.085093510097</c:v>
+                  <c:v>59788.201224577002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61493.8791798272</c:v>
+                  <c:v>60801.864578184599</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61960.737848543999</c:v>
+                  <c:v>59673.004754489397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62643.6860916121</c:v>
+                  <c:v>61975.352011292103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60839.882379999697</c:v>
+                  <c:v>61908.8245031837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,64 +1224,64 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="20"/>
                       <c:pt idx="0">
-                        <c:v>670.35860563867595</c:v>
+                        <c:v>681.62819602716399</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>701.84486544904098</c:v>
+                        <c:v>668.87120718017002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>684.490557462742</c:v>
+                        <c:v>674.99722794707498</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>687.36195695629897</c:v>
+                        <c:v>694.55823977941498</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>659.63215610324801</c:v>
+                        <c:v>664.816841434504</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>687.56142580305902</c:v>
+                        <c:v>676.71142675726003</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>693.11877503091398</c:v>
+                        <c:v>688.19974046070899</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>691.64946979530202</c:v>
+                        <c:v>687.29335902993603</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>699.68663741202204</c:v>
+                        <c:v>695.49205139690298</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>684.84514349757103</c:v>
+                        <c:v>683.50372289596703</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>686.42058055207099</c:v>
+                        <c:v>694.10728911748095</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>675.78015547632594</c:v>
+                        <c:v>678.68825988177298</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>689.39945704564298</c:v>
+                        <c:v>700.77665370992702</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>701.38516144561402</c:v>
+                        <c:v>706.18988243941703</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>694.95680627349805</c:v>
+                        <c:v>679.44117218673398</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>694.97880534018395</c:v>
+                        <c:v>699.96619061486399</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>689.81951790120399</c:v>
+                        <c:v>695.43579100003603</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>706.04916852184795</c:v>
+                        <c:v>711.99329263275195</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>698.31962131560795</c:v>
+                        <c:v>700.03589135472305</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>704.99647865639497</c:v>
+                        <c:v>671.41389701450305</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1705,64 +1699,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>69458.040060736297</c:v>
+                  <c:v>68582.680406728599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70314.047590358503</c:v>
+                  <c:v>68542.996739145194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69882.324757429102</c:v>
+                  <c:v>69696.549376571595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70276.951584343493</c:v>
+                  <c:v>70254.133539570801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69143.319022807307</c:v>
+                  <c:v>69895.329051725101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71001.466682179496</c:v>
+                  <c:v>70249.416564332903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70053.797738749199</c:v>
+                  <c:v>68963.365572303504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69243.590213408199</c:v>
+                  <c:v>68843.509575975302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70494.844588465203</c:v>
+                  <c:v>70457.547807018796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68822.9846800003</c:v>
+                  <c:v>69004.980133917299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70804.333045831707</c:v>
+                  <c:v>70781.178906637404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69896.875226376593</c:v>
+                  <c:v>68751.7723590815</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70293.822328198599</c:v>
+                  <c:v>70490.0006957515</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69666.403262986394</c:v>
+                  <c:v>69278.489244299402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69253.599389300303</c:v>
+                  <c:v>69901.331373437497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68880.9882050366</c:v>
+                  <c:v>69212.113724543306</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70216.704241086001</c:v>
+                  <c:v>69613.875550567507</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68465.325012024303</c:v>
+                  <c:v>69657.863853495306</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70430.171868756894</c:v>
+                  <c:v>70404.943278840205</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>70099.016468693095</c:v>
+                  <c:v>69753.070585758993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,64 +1907,64 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="20"/>
                       <c:pt idx="0">
-                        <c:v>670.35860563867595</c:v>
+                        <c:v>681.62819602716399</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>701.84486544904098</c:v>
+                        <c:v>668.87120718017002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>684.490557462742</c:v>
+                        <c:v>674.99722794707498</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>687.36195695629897</c:v>
+                        <c:v>694.55823977941498</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>659.63215610324801</c:v>
+                        <c:v>664.816841434504</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>687.56142580305902</c:v>
+                        <c:v>676.71142675726003</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>693.11877503091398</c:v>
+                        <c:v>688.19974046070899</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>691.64946979530202</c:v>
+                        <c:v>687.29335902993603</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>699.68663741202204</c:v>
+                        <c:v>695.49205139690298</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>684.84514349757103</c:v>
+                        <c:v>683.50372289596703</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>686.42058055207099</c:v>
+                        <c:v>694.10728911748095</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>675.78015547632594</c:v>
+                        <c:v>678.68825988177298</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>689.39945704564298</c:v>
+                        <c:v>700.77665370992702</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>701.38516144561402</c:v>
+                        <c:v>706.18988243941703</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>694.95680627349805</c:v>
+                        <c:v>679.44117218673398</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>694.97880534018395</c:v>
+                        <c:v>699.96619061486399</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>689.81951790120399</c:v>
+                        <c:v>695.43579100003603</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>706.04916852184795</c:v>
+                        <c:v>711.99329263275195</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>698.31962131560795</c:v>
+                        <c:v>700.03589135472305</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>704.99647865639497</c:v>
+                        <c:v>671.41389701450305</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3609,44 +3603,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>579121</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>274321</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>78465</xdr:rowOff>
+      <xdr:rowOff>3266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDCDEF7-AA1F-5E60-A943-47BD0BD2B115}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77942B2-64F4-FFB2-9853-2AF5A1BA16B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7284721" y="708660"/>
-          <a:ext cx="2743200" cy="2113005"/>
+          <a:off x="7376160" y="708660"/>
+          <a:ext cx="2476500" cy="2037806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3661,13 +3672,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>118431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>274319</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133957</xdr:rowOff>
+      <xdr:rowOff>114586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3683,15 +3694,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5303520" y="2842260"/>
-          <a:ext cx="2895599" cy="2229457"/>
+          <a:off x="5303520" y="2861631"/>
+          <a:ext cx="2895599" cy="2190715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3703,13 +3719,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:colOff>467050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>106681</xdr:colOff>
+      <xdr:colOff>58732</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>130316</xdr:rowOff>
     </xdr:to>
@@ -3727,15 +3743,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295901" y="266700"/>
-          <a:ext cx="2735580" cy="2241056"/>
+          <a:off x="5343850" y="266700"/>
+          <a:ext cx="2639682" cy="2241056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3752,13 +3773,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>345415</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76698</xdr:colOff>
+      <xdr:colOff>66563</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>179362</xdr:rowOff>
     </xdr:to>
@@ -3776,15 +3797,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3383280" y="3086100"/>
-          <a:ext cx="2789418" cy="2031022"/>
+          <a:off x="3393415" y="3086100"/>
+          <a:ext cx="2769148" cy="2031022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3796,13 +3822,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>278258</xdr:colOff>
+      <xdr:colOff>307764</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>167639</xdr:colOff>
+      <xdr:colOff>138132</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106375</xdr:rowOff>
     </xdr:to>
@@ -3820,15 +3846,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3326258" y="297181"/>
-          <a:ext cx="2937381" cy="2369514"/>
+          <a:off x="3355764" y="297181"/>
+          <a:ext cx="2878368" cy="2369514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3845,13 +3876,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>392502</xdr:colOff>
+      <xdr:colOff>471396</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>518159</xdr:colOff>
+      <xdr:colOff>439265</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>65610</xdr:rowOff>
     </xdr:to>
@@ -3861,99 +3892,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880ED9EF-3909-6336-3BDB-3C5CC99CE2B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3440502" y="2872740"/>
-          <a:ext cx="2564057" cy="1764870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>497840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E90356C-38B5-5DD1-E574-07B23F48C127}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3383280" y="358140"/>
-          <a:ext cx="2600960" cy="1950720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>198462</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>388762</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>54995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0F20B8-A997-285C-A239-C1DDB1F3D56D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,8 +3912,111 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246462" y="2787798"/>
-          <a:ext cx="2628700" cy="2022077"/>
+          <a:off x="3519396" y="2872740"/>
+          <a:ext cx="2406269" cy="1764870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450941</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>382179</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E90356C-38B5-5DD1-E574-07B23F48C127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498941" y="358140"/>
+          <a:ext cx="2369638" cy="1950720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321936</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265288</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0F20B8-A997-285C-A239-C1DDB1F3D56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3369936" y="2787798"/>
+          <a:ext cx="2381752" cy="2022077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4335,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E2A21-6F56-46C6-AC9B-ACD07EBC0E23}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4481,7 @@
       </c>
       <c r="D5">
         <f>greedy!D4</f>
-        <v>6.4</v>
+        <v>2E-3</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12"/>
@@ -4510,7 +4551,7 @@
       </c>
       <c r="N7" s="4">
         <f>$D$5</f>
-        <v>6.4</v>
+        <v>2E-3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>9</v>
@@ -4525,27 +4566,27 @@
       </c>
       <c r="J8" s="3">
         <f>E15</f>
-        <v>565.45409997413105</v>
+        <v>563.18260381534503</v>
       </c>
       <c r="K8" s="3">
         <f>F15</f>
-        <v>593.27174325423312</v>
+        <v>588.56844699836847</v>
       </c>
       <c r="L8" s="3">
         <f>G15</f>
-        <v>613.87262759977102</v>
+        <v>619.89924440373204</v>
       </c>
       <c r="M8" s="3">
         <f>E19</f>
-        <v>0.68500000000000005</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="N8" s="3">
         <f>F19</f>
-        <v>0.75014999999999998</v>
+        <v>0.6571499999999999</v>
       </c>
       <c r="O8" s="3">
         <f>G19</f>
-        <v>0.80300000000000005</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P8" s="3">
         <f>$B$12</f>
@@ -4558,27 +4599,27 @@
       </c>
       <c r="J9" s="3">
         <f>E41</f>
-        <v>659.63215610324801</v>
+        <v>664.816841434504</v>
       </c>
       <c r="K9" s="3">
         <f>F41</f>
-        <v>690.13276728386325</v>
+        <v>687.70601664306571</v>
       </c>
       <c r="L9" s="3">
         <f>G41</f>
-        <v>706.04916852184795</v>
+        <v>711.99329263275195</v>
       </c>
       <c r="M9" s="3">
         <f>E45</f>
-        <v>9.1310000000000002</v>
+        <v>8.6549999999999994</v>
       </c>
       <c r="N9" s="3">
         <f>F45</f>
-        <v>9.6602500000000013</v>
+        <v>10.31485</v>
       </c>
       <c r="O9" s="3">
         <f>G45</f>
-        <v>11.906000000000001</v>
+        <v>13.932</v>
       </c>
       <c r="P9" s="3">
         <f>$B$38</f>
@@ -4651,11 +4692,11 @@
       </c>
       <c r="B14">
         <f>sa_76!B5</f>
-        <v>593.47902230443901</v>
+        <v>597.86172762766296</v>
       </c>
       <c r="C14">
         <f>sa_76!C5</f>
-        <v>0.80300000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -4674,23 +4715,23 @@
       </c>
       <c r="B15">
         <f>sa_76!B6</f>
-        <v>591.03680070017595</v>
+        <v>591.64994255452802</v>
       </c>
       <c r="C15">
         <f>sa_76!C6</f>
-        <v>0.68500000000000005</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E15">
         <f>MIN(B14:B33)</f>
-        <v>565.45409997413105</v>
+        <v>563.18260381534503</v>
       </c>
       <c r="F15">
         <f>AVERAGE(B14:B33)</f>
-        <v>593.27174325423312</v>
+        <v>588.56844699836847</v>
       </c>
       <c r="G15">
         <f>MAX(B14:B33)</f>
-        <v>613.87262759977102</v>
+        <v>619.89924440373204</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -4700,11 +4741,11 @@
       </c>
       <c r="B16">
         <f>sa_76!B7</f>
-        <v>590.98106375619398</v>
+        <v>573.33006322030201</v>
       </c>
       <c r="C16">
         <f>sa_76!C7</f>
-        <v>0.76900000000000002</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4714,11 +4755,11 @@
       </c>
       <c r="B17">
         <f>sa_76!B8</f>
-        <v>565.45409997413105</v>
+        <v>573.61289425857296</v>
       </c>
       <c r="C17">
         <f>sa_76!C8</f>
-        <v>0.73199999999999998</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -4731,11 +4772,11 @@
       </c>
       <c r="B18">
         <f>sa_76!B9</f>
-        <v>584.30106833718901</v>
+        <v>597.17661148790296</v>
       </c>
       <c r="C18">
         <f>sa_76!C9</f>
-        <v>0.74</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -4754,23 +4795,23 @@
       </c>
       <c r="B19">
         <f>sa_76!B10</f>
-        <v>582.84125319570296</v>
+        <v>607.20486384412095</v>
       </c>
       <c r="C19">
         <f>sa_76!C10</f>
-        <v>0.77300000000000002</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="E19">
         <f>MIN(C14:C33)</f>
-        <v>0.68500000000000005</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="F19">
         <f>AVERAGE(C14:C33)</f>
-        <v>0.75014999999999998</v>
+        <v>0.6571499999999999</v>
       </c>
       <c r="G19">
         <f>MAX(C14:C33)</f>
-        <v>0.80300000000000005</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4780,11 +4821,11 @@
       </c>
       <c r="B20">
         <f>sa_76!B11</f>
-        <v>597.49471783136198</v>
+        <v>594.26286529449806</v>
       </c>
       <c r="C20">
         <f>sa_76!C11</f>
-        <v>0.73299999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4794,11 +4835,11 @@
       </c>
       <c r="B21">
         <f>sa_76!B12</f>
-        <v>582.64907772505603</v>
+        <v>580.27537842226695</v>
       </c>
       <c r="C21">
         <f>sa_76!C12</f>
-        <v>0.73799999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -4808,11 +4849,11 @@
       </c>
       <c r="B22">
         <f>sa_76!B13</f>
-        <v>613.87262759977102</v>
+        <v>598.74538178718296</v>
       </c>
       <c r="C22">
         <f>sa_76!C13</f>
-        <v>0.73799999999999999</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -4822,11 +4863,11 @@
       </c>
       <c r="B23">
         <f>sa_76!B14</f>
-        <v>605.239759210785</v>
+        <v>585.62132228059397</v>
       </c>
       <c r="C23">
         <f>sa_76!C14</f>
-        <v>0.75900000000000001</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -4836,11 +4877,11 @@
       </c>
       <c r="B24">
         <f>sa_76!B15</f>
-        <v>609.46677547838794</v>
+        <v>585.28411895591898</v>
       </c>
       <c r="C24">
         <f>sa_76!C15</f>
-        <v>0.72099999999999997</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4850,11 +4891,11 @@
       </c>
       <c r="B25">
         <f>sa_76!B16</f>
-        <v>602.29299017231904</v>
+        <v>575.62847379255504</v>
       </c>
       <c r="C25">
         <f>sa_76!C16</f>
-        <v>0.78200000000000003</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4864,11 +4905,11 @@
       </c>
       <c r="B26">
         <f>sa_76!B17</f>
-        <v>581.87691428764003</v>
+        <v>575.49285909293997</v>
       </c>
       <c r="C26">
         <f>sa_76!C17</f>
-        <v>0.78600000000000003</v>
+        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -4878,11 +4919,11 @@
       </c>
       <c r="B27">
         <f>sa_76!B18</f>
-        <v>589.27919720813304</v>
+        <v>576.37113804650596</v>
       </c>
       <c r="C27">
         <f>sa_76!C18</f>
-        <v>0.73</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4892,11 +4933,11 @@
       </c>
       <c r="B28">
         <f>sa_76!B19</f>
-        <v>597.13904251917404</v>
+        <v>602.69644538645503</v>
       </c>
       <c r="C28">
         <f>sa_76!C19</f>
-        <v>0.74</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4906,11 +4947,11 @@
       </c>
       <c r="B29">
         <f>sa_76!B20</f>
-        <v>587.72333490799497</v>
+        <v>601.60505613224097</v>
       </c>
       <c r="C29">
         <f>sa_76!C20</f>
-        <v>0.72299999999999998</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4920,11 +4961,11 @@
       </c>
       <c r="B30">
         <f>sa_76!B21</f>
-        <v>588.35506868923505</v>
+        <v>563.18260381534503</v>
       </c>
       <c r="C30">
         <f>sa_76!C21</f>
-        <v>0.72199999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4934,11 +4975,11 @@
       </c>
       <c r="B31">
         <f>sa_76!B22</f>
-        <v>596.21744384306396</v>
+        <v>619.89924440373204</v>
       </c>
       <c r="C31">
         <f>sa_76!C22</f>
-        <v>0.78700000000000003</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4948,11 +4989,11 @@
       </c>
       <c r="B32">
         <f>sa_76!B23</f>
-        <v>606.35304674270606</v>
+        <v>594.408385249091</v>
       </c>
       <c r="C32">
         <f>sa_76!C23</f>
-        <v>0.754</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4962,11 +5003,11 @@
       </c>
       <c r="B33">
         <f>sa_76!B24</f>
-        <v>599.38156060120195</v>
+        <v>577.05956431495304</v>
       </c>
       <c r="C33">
         <f>sa_76!C24</f>
-        <v>0.78800000000000003</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -5035,11 +5076,11 @@
       </c>
       <c r="B40">
         <f>pso_76!B5</f>
-        <v>670.35860563867595</v>
+        <v>681.62819602716399</v>
       </c>
       <c r="C40">
         <f>pso_76!C5</f>
-        <v>11.906000000000001</v>
+        <v>10.935</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -5058,23 +5099,23 @@
       </c>
       <c r="B41">
         <f>pso_76!B6</f>
-        <v>701.84486544904098</v>
+        <v>668.87120718017002</v>
       </c>
       <c r="C41">
         <f>pso_76!C6</f>
-        <v>10.087</v>
+        <v>9.3040000000000003</v>
       </c>
       <c r="E41">
         <f>MIN(B40:B59)</f>
-        <v>659.63215610324801</v>
+        <v>664.816841434504</v>
       </c>
       <c r="F41">
         <f>AVERAGE(B40:B59)</f>
-        <v>690.13276728386325</v>
+        <v>687.70601664306571</v>
       </c>
       <c r="G41">
         <f>MAX(B40:B59)</f>
-        <v>706.04916852184795</v>
+        <v>711.99329263275195</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -5084,11 +5125,11 @@
       </c>
       <c r="B42">
         <f>pso_76!B7</f>
-        <v>684.490557462742</v>
+        <v>674.99722794707498</v>
       </c>
       <c r="C42">
         <f>pso_76!C7</f>
-        <v>9.923</v>
+        <v>10.867000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -5098,11 +5139,11 @@
       </c>
       <c r="B43">
         <f>pso_76!B8</f>
-        <v>687.36195695629897</v>
+        <v>694.55823977941498</v>
       </c>
       <c r="C43">
         <f>pso_76!C8</f>
-        <v>9.2739999999999991</v>
+        <v>10.08</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -5115,11 +5156,11 @@
       </c>
       <c r="B44">
         <f>pso_76!B9</f>
-        <v>659.63215610324801</v>
+        <v>664.816841434504</v>
       </c>
       <c r="C44">
         <f>pso_76!C9</f>
-        <v>9.343</v>
+        <v>11.109</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -5138,23 +5179,23 @@
       </c>
       <c r="B45">
         <f>pso_76!B10</f>
-        <v>687.56142580305902</v>
+        <v>676.71142675726003</v>
       </c>
       <c r="C45">
         <f>pso_76!C10</f>
-        <v>9.827</v>
+        <v>11.016999999999999</v>
       </c>
       <c r="E45">
         <f>MIN(C40:C59)</f>
-        <v>9.1310000000000002</v>
+        <v>8.6549999999999994</v>
       </c>
       <c r="F45">
         <f>AVERAGE(C40:C59)</f>
-        <v>9.6602500000000013</v>
+        <v>10.31485</v>
       </c>
       <c r="G45">
         <f>MAX(C40:C59)</f>
-        <v>11.906000000000001</v>
+        <v>13.932</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -5164,11 +5205,11 @@
       </c>
       <c r="B46">
         <f>pso_76!B11</f>
-        <v>693.11877503091398</v>
+        <v>688.19974046070899</v>
       </c>
       <c r="C46">
         <f>pso_76!C11</f>
-        <v>9.3439999999999994</v>
+        <v>9.0489999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -5178,11 +5219,11 @@
       </c>
       <c r="B47">
         <f>pso_76!B12</f>
-        <v>691.64946979530202</v>
+        <v>687.29335902993603</v>
       </c>
       <c r="C47">
         <f>pso_76!C12</f>
-        <v>9.4700000000000006</v>
+        <v>10.986000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -5192,11 +5233,11 @@
       </c>
       <c r="B48">
         <f>pso_76!B13</f>
-        <v>699.68663741202204</v>
+        <v>695.49205139690298</v>
       </c>
       <c r="C48">
         <f>pso_76!C13</f>
-        <v>9.6080000000000005</v>
+        <v>13.932</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -5206,11 +5247,11 @@
       </c>
       <c r="B49">
         <f>pso_76!B14</f>
-        <v>684.84514349757103</v>
+        <v>683.50372289596703</v>
       </c>
       <c r="C49">
         <f>pso_76!C14</f>
-        <v>9.3689999999999998</v>
+        <v>11.048</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5220,11 +5261,11 @@
       </c>
       <c r="B50">
         <f>pso_76!B15</f>
-        <v>686.42058055207099</v>
+        <v>694.10728911748095</v>
       </c>
       <c r="C50">
         <f>pso_76!C15</f>
-        <v>10.368</v>
+        <v>10.943</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -5234,11 +5275,11 @@
       </c>
       <c r="B51">
         <f>pso_76!B16</f>
-        <v>675.78015547632594</v>
+        <v>678.68825988177298</v>
       </c>
       <c r="C51">
         <f>pso_76!C16</f>
-        <v>9.6050000000000004</v>
+        <v>8.7810000000000006</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5248,11 +5289,11 @@
       </c>
       <c r="B52">
         <f>pso_76!B17</f>
-        <v>689.39945704564298</v>
+        <v>700.77665370992702</v>
       </c>
       <c r="C52">
         <f>pso_76!C17</f>
-        <v>9.35</v>
+        <v>8.8780000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5262,11 +5303,11 @@
       </c>
       <c r="B53">
         <f>pso_76!B18</f>
-        <v>701.38516144561402</v>
+        <v>706.18988243941703</v>
       </c>
       <c r="C53">
         <f>pso_76!C18</f>
-        <v>9.1430000000000007</v>
+        <v>10.231999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5276,11 +5317,11 @@
       </c>
       <c r="B54">
         <f>pso_76!B19</f>
-        <v>694.95680627349805</v>
+        <v>679.44117218673398</v>
       </c>
       <c r="C54">
         <f>pso_76!C19</f>
-        <v>9.5250000000000004</v>
+        <v>10.839</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5290,11 +5331,11 @@
       </c>
       <c r="B55">
         <f>pso_76!B20</f>
-        <v>694.97880534018395</v>
+        <v>699.96619061486399</v>
       </c>
       <c r="C55">
         <f>pso_76!C20</f>
-        <v>9.3529999999999998</v>
+        <v>8.7940000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5304,11 +5345,11 @@
       </c>
       <c r="B56">
         <f>pso_76!B21</f>
-        <v>689.81951790120399</v>
+        <v>695.43579100003603</v>
       </c>
       <c r="C56">
         <f>pso_76!C21</f>
-        <v>9.1310000000000002</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5318,11 +5359,11 @@
       </c>
       <c r="B57">
         <f>pso_76!B22</f>
-        <v>706.04916852184795</v>
+        <v>711.99329263275195</v>
       </c>
       <c r="C57">
         <f>pso_76!C22</f>
-        <v>9.5589999999999993</v>
+        <v>8.6549999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5332,11 +5373,11 @@
       </c>
       <c r="B58">
         <f>pso_76!B23</f>
-        <v>698.31962131560795</v>
+        <v>700.03589135472305</v>
       </c>
       <c r="C58">
         <f>pso_76!C23</f>
-        <v>9.3520000000000003</v>
+        <v>10.965999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5346,11 +5387,11 @@
       </c>
       <c r="B59">
         <f>pso_76!B24</f>
-        <v>704.99647865639497</v>
+        <v>671.41389701450305</v>
       </c>
       <c r="C59">
         <f>pso_76!C24</f>
-        <v>9.6679999999999993</v>
+        <v>8.8019999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5518,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09576F6A-7937-4023-A9B9-E70FEC248EE7}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5612,7 +5653,7 @@
       </c>
       <c r="D5">
         <f>greedy!D8</f>
-        <v>73.432000000000002</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12"/>
@@ -5682,7 +5723,7 @@
       </c>
       <c r="N7" s="4">
         <f>D5</f>
-        <v>73.432000000000002</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>9</v>
@@ -5709,27 +5750,27 @@
       </c>
       <c r="J8" s="3">
         <f>E13</f>
-        <v>60364.425322885298</v>
+        <v>59673.004754489397</v>
       </c>
       <c r="K8" s="3">
         <f>F13</f>
-        <v>61606.553877532599</v>
+        <v>61070.629295941479</v>
       </c>
       <c r="L8" s="3">
         <f>G13</f>
-        <v>63435.7363046799</v>
+        <v>62544.170287561901</v>
       </c>
       <c r="M8" s="3">
         <f>E17</f>
-        <v>6.1139999999999999</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="N8" s="3">
         <f>F17</f>
-        <v>6.7694500000000009</v>
+        <v>5.4442500000000011</v>
       </c>
       <c r="O8" s="3">
         <f>G17</f>
-        <v>9.1229999999999993</v>
+        <v>7.0510000000000002</v>
       </c>
       <c r="P8" s="3">
         <f>B10</f>
@@ -5819,11 +5860,11 @@
       </c>
       <c r="B12">
         <f>sa_657!B5</f>
-        <v>61163.809520189498</v>
+        <v>61065.8541381084</v>
       </c>
       <c r="C12">
         <f>sa_657!C5</f>
-        <v>6.45</v>
+        <v>5.07</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -5842,23 +5883,23 @@
       </c>
       <c r="B13">
         <f>sa_657!B6</f>
-        <v>62824.049888502901</v>
+        <v>61941.573036727503</v>
       </c>
       <c r="C13">
         <f>sa_657!C6</f>
-        <v>6.2080000000000002</v>
+        <v>5.0709999999999997</v>
       </c>
       <c r="E13">
         <f>MIN(B12:B31)</f>
-        <v>60364.425322885298</v>
+        <v>59673.004754489397</v>
       </c>
       <c r="F13">
         <f>AVERAGE(B12:B31)</f>
-        <v>61606.553877532599</v>
+        <v>61070.629295941479</v>
       </c>
       <c r="G13">
         <f>MAX(B12:B31)</f>
-        <v>63435.7363046799</v>
+        <v>62544.170287561901</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -5868,11 +5909,11 @@
       </c>
       <c r="B14">
         <f>sa_657!B7</f>
-        <v>60495.201078416598</v>
+        <v>61378.983358066602</v>
       </c>
       <c r="C14">
         <f>sa_657!C7</f>
-        <v>9.1229999999999993</v>
+        <v>7.0510000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -5882,11 +5923,11 @@
       </c>
       <c r="B15">
         <f>sa_657!B8</f>
-        <v>62017.677191643801</v>
+        <v>61852.542950335199</v>
       </c>
       <c r="C15">
         <f>sa_657!C8</f>
-        <v>7.1680000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -5899,11 +5940,11 @@
       </c>
       <c r="B16">
         <f>sa_657!B9</f>
-        <v>61270.356693232003</v>
+        <v>61190.492664626698</v>
       </c>
       <c r="C16">
         <f>sa_657!C9</f>
-        <v>6.593</v>
+        <v>6.375</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -5922,23 +5963,23 @@
       </c>
       <c r="B17">
         <f>sa_657!B10</f>
-        <v>61250.821173393502</v>
+        <v>61840.701930540803</v>
       </c>
       <c r="C17">
         <f>sa_657!C10</f>
-        <v>6.1139999999999999</v>
+        <v>5.0369999999999999</v>
       </c>
       <c r="E17">
         <f>MIN(C12:C31)</f>
-        <v>6.1139999999999999</v>
+        <v>5.0010000000000003</v>
       </c>
       <c r="F17">
         <f>AVERAGE(C12:C31)</f>
-        <v>6.7694500000000009</v>
+        <v>5.4442500000000011</v>
       </c>
       <c r="G17">
         <f>MAX(C12:C31)</f>
-        <v>9.1229999999999993</v>
+        <v>7.0510000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -5948,11 +5989,11 @@
       </c>
       <c r="B18">
         <f>sa_657!B11</f>
-        <v>60364.425322885298</v>
+        <v>61840.701930540803</v>
       </c>
       <c r="C18">
         <f>sa_657!C11</f>
-        <v>6.8680000000000003</v>
+        <v>5.0369999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -5962,11 +6003,11 @@
       </c>
       <c r="B19">
         <f>sa_657!B12</f>
-        <v>61133.615062212499</v>
+        <v>60032.766757632897</v>
       </c>
       <c r="C19">
         <f>sa_657!C12</f>
-        <v>6.9379999999999997</v>
+        <v>5.0369999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -5976,11 +6017,11 @@
       </c>
       <c r="B20">
         <f>sa_657!B13</f>
-        <v>61619.3274852049</v>
+        <v>60945.649022426798</v>
       </c>
       <c r="C20">
         <f>sa_657!C13</f>
-        <v>6.5270000000000001</v>
+        <v>5.8029999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -5990,11 +6031,11 @@
       </c>
       <c r="B21">
         <f>sa_657!B14</f>
-        <v>60727.428174982801</v>
+        <v>60697.808383826603</v>
       </c>
       <c r="C21">
         <f>sa_657!C14</f>
-        <v>6.6859999999999999</v>
+        <v>5.0010000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -6004,11 +6045,11 @@
       </c>
       <c r="B22">
         <f>sa_657!B15</f>
-        <v>61946.202056790098</v>
+        <v>59737.978054155501</v>
       </c>
       <c r="C22">
         <f>sa_657!C15</f>
-        <v>6.8550000000000004</v>
+        <v>5.7889999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -6018,11 +6059,11 @@
       </c>
       <c r="B23">
         <f>sa_657!B16</f>
-        <v>62329.832459593301</v>
+        <v>60046.570997645103</v>
       </c>
       <c r="C23">
         <f>sa_657!C16</f>
-        <v>6.9260000000000002</v>
+        <v>5.0650000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -6032,11 +6073,11 @@
       </c>
       <c r="B24">
         <f>sa_657!B17</f>
-        <v>61346.277201323501</v>
+        <v>60683.202725751296</v>
       </c>
       <c r="C24">
         <f>sa_657!C17</f>
-        <v>6.6520000000000001</v>
+        <v>6.3460000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -6046,11 +6087,11 @@
       </c>
       <c r="B25">
         <f>sa_657!B18</f>
-        <v>63435.7363046799</v>
+        <v>62544.170287561901</v>
       </c>
       <c r="C25">
         <f>sa_657!C18</f>
-        <v>7.1379999999999999</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -6060,11 +6101,11 @@
       </c>
       <c r="B26">
         <f>sa_657!B19</f>
-        <v>62109.047344108498</v>
+        <v>61466.342609156804</v>
       </c>
       <c r="C26">
         <f>sa_657!C19</f>
-        <v>6.1840000000000002</v>
+        <v>5.0140000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -6074,11 +6115,11 @@
       </c>
       <c r="B27">
         <f>sa_657!B20</f>
-        <v>61159.085093510097</v>
+        <v>59788.201224577002</v>
       </c>
       <c r="C27">
         <f>sa_657!C20</f>
-        <v>6.3630000000000004</v>
+        <v>5.0369999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -6088,11 +6129,11 @@
       </c>
       <c r="B28">
         <f>sa_657!B21</f>
-        <v>61493.8791798272</v>
+        <v>60801.864578184599</v>
       </c>
       <c r="C28">
         <f>sa_657!C21</f>
-        <v>6.8170000000000002</v>
+        <v>5.0720000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -6102,11 +6143,11 @@
       </c>
       <c r="B29">
         <f>sa_657!B22</f>
-        <v>61960.737848543999</v>
+        <v>59673.004754489397</v>
       </c>
       <c r="C29">
         <f>sa_657!C22</f>
-        <v>6.4770000000000003</v>
+        <v>6.3609999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -6116,11 +6157,11 @@
       </c>
       <c r="B30">
         <f>sa_657!B23</f>
-        <v>62643.6860916121</v>
+        <v>61975.352011292103</v>
       </c>
       <c r="C30">
         <f>sa_657!C23</f>
-        <v>7.125</v>
+        <v>5.2380000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -6130,11 +6171,11 @@
       </c>
       <c r="B31">
         <f>sa_657!B24</f>
-        <v>60839.882379999697</v>
+        <v>61908.8245031837</v>
       </c>
       <c r="C31">
         <f>sa_657!C24</f>
-        <v>6.1769999999999996</v>
+        <v>5.4210000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6155,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0E6E08-FBB2-4341-B5E0-1997E3A0AAD4}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6249,7 +6290,7 @@
       </c>
       <c r="D5">
         <f>greedy!D12</f>
-        <v>296.63499999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12"/>
@@ -6315,7 +6356,7 @@
       </c>
       <c r="N7" s="4">
         <f>D5</f>
-        <v>296.63499999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>9</v>
@@ -6342,27 +6383,27 @@
       </c>
       <c r="J8" s="3">
         <f>E12</f>
-        <v>68465.325012024303</v>
+        <v>68542.996739145194</v>
       </c>
       <c r="K8" s="3">
         <f>F12</f>
-        <v>69834.930298338382</v>
+        <v>69616.757416985085</v>
       </c>
       <c r="L8" s="3">
         <f>G12</f>
-        <v>71001.466682179496</v>
+        <v>70781.178906637404</v>
       </c>
       <c r="M8" s="3">
         <f>E16</f>
-        <v>13.076000000000001</v>
+        <v>11.811</v>
       </c>
       <c r="N8" s="3">
         <f>F16</f>
-        <v>13.951699999999999</v>
+        <v>12.679150000000002</v>
       </c>
       <c r="O8" s="3">
         <f>G16</f>
-        <v>15.826000000000001</v>
+        <v>13.971</v>
       </c>
       <c r="P8" s="3">
         <f>$B$9</f>
@@ -6438,11 +6479,11 @@
       </c>
       <c r="B11">
         <f>sa_1379!B5</f>
-        <v>69458.040060736297</v>
+        <v>68582.680406728599</v>
       </c>
       <c r="C11">
         <f>sa_1379!C5</f>
-        <v>14.106</v>
+        <v>13.106</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -6461,23 +6502,23 @@
       </c>
       <c r="B12">
         <f>sa_1379!B6</f>
-        <v>70314.047590358503</v>
+        <v>68542.996739145194</v>
       </c>
       <c r="C12">
         <f>sa_1379!C6</f>
-        <v>14.06</v>
+        <v>12.593999999999999</v>
       </c>
       <c r="E12">
         <f>MIN(B11:B30)</f>
-        <v>68465.325012024303</v>
+        <v>68542.996739145194</v>
       </c>
       <c r="F12">
         <f>AVERAGE(B11:B30)</f>
-        <v>69834.930298338382</v>
+        <v>69616.757416985085</v>
       </c>
       <c r="G12">
         <f>MAX(B11:B30)</f>
-        <v>71001.466682179496</v>
+        <v>70781.178906637404</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -6487,11 +6528,11 @@
       </c>
       <c r="B13">
         <f>sa_1379!B7</f>
-        <v>69882.324757429102</v>
+        <v>69696.549376571595</v>
       </c>
       <c r="C13">
         <f>sa_1379!C7</f>
-        <v>14.178000000000001</v>
+        <v>13.817</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -6501,11 +6542,11 @@
       </c>
       <c r="B14">
         <f>sa_1379!B8</f>
-        <v>70276.951584343493</v>
+        <v>70254.133539570801</v>
       </c>
       <c r="C14">
         <f>sa_1379!C8</f>
-        <v>15.826000000000001</v>
+        <v>12.586</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -6518,11 +6559,11 @@
       </c>
       <c r="B15">
         <f>sa_1379!B9</f>
-        <v>69143.319022807307</v>
+        <v>69895.329051725101</v>
       </c>
       <c r="C15">
         <f>sa_1379!C9</f>
-        <v>14.247999999999999</v>
+        <v>12.571</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -6541,23 +6582,23 @@
       </c>
       <c r="B16">
         <f>sa_1379!B10</f>
-        <v>71001.466682179496</v>
+        <v>70249.416564332903</v>
       </c>
       <c r="C16">
         <f>sa_1379!C10</f>
-        <v>13.768000000000001</v>
+        <v>11.811</v>
       </c>
       <c r="E16">
         <f>MIN(C11:C30)</f>
-        <v>13.076000000000001</v>
+        <v>11.811</v>
       </c>
       <c r="F16">
         <f>AVERAGE(C11:C30)</f>
-        <v>13.951699999999999</v>
+        <v>12.679150000000002</v>
       </c>
       <c r="G16">
         <f>MAX(C11:C30)</f>
-        <v>15.826000000000001</v>
+        <v>13.971</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6567,11 +6608,11 @@
       </c>
       <c r="B17">
         <f>sa_1379!B11</f>
-        <v>70053.797738749199</v>
+        <v>68963.365572303504</v>
       </c>
       <c r="C17">
         <f>sa_1379!C11</f>
-        <v>14.035</v>
+        <v>12.574999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6581,11 +6622,11 @@
       </c>
       <c r="B18">
         <f>sa_1379!B12</f>
-        <v>69243.590213408199</v>
+        <v>68843.509575975302</v>
       </c>
       <c r="C18">
         <f>sa_1379!C12</f>
-        <v>13.949</v>
+        <v>13.143000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6595,11 +6636,11 @@
       </c>
       <c r="B19">
         <f>sa_1379!B13</f>
-        <v>70494.844588465203</v>
+        <v>70457.547807018796</v>
       </c>
       <c r="C19">
         <f>sa_1379!C13</f>
-        <v>13.631</v>
+        <v>12.611000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6609,11 +6650,11 @@
       </c>
       <c r="B20">
         <f>sa_1379!B14</f>
-        <v>68822.9846800003</v>
+        <v>69004.980133917299</v>
       </c>
       <c r="C20">
         <f>sa_1379!C14</f>
-        <v>13.631</v>
+        <v>12.641999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6623,11 +6664,11 @@
       </c>
       <c r="B21">
         <f>sa_1379!B15</f>
-        <v>70804.333045831707</v>
+        <v>70781.178906637404</v>
       </c>
       <c r="C21">
         <f>sa_1379!C15</f>
-        <v>13.739000000000001</v>
+        <v>13.971</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6637,11 +6678,11 @@
       </c>
       <c r="B22">
         <f>sa_1379!B16</f>
-        <v>69896.875226376593</v>
+        <v>68751.7723590815</v>
       </c>
       <c r="C22">
         <f>sa_1379!C16</f>
-        <v>13.076000000000001</v>
+        <v>12.712</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6651,11 +6692,11 @@
       </c>
       <c r="B23">
         <f>sa_1379!B17</f>
-        <v>70293.822328198599</v>
+        <v>70490.0006957515</v>
       </c>
       <c r="C23">
         <f>sa_1379!C17</f>
-        <v>13.657</v>
+        <v>12.567</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6665,11 +6706,11 @@
       </c>
       <c r="B24">
         <f>sa_1379!B18</f>
-        <v>69666.403262986394</v>
+        <v>69278.489244299402</v>
       </c>
       <c r="C24">
         <f>sa_1379!C18</f>
-        <v>13.731999999999999</v>
+        <v>12.602</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6679,11 +6720,11 @@
       </c>
       <c r="B25">
         <f>sa_1379!B19</f>
-        <v>69253.599389300303</v>
+        <v>69901.331373437497</v>
       </c>
       <c r="C25">
         <f>sa_1379!C19</f>
-        <v>13.984</v>
+        <v>12.509</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6693,11 +6734,11 @@
       </c>
       <c r="B26">
         <f>sa_1379!B20</f>
-        <v>68880.9882050366</v>
+        <v>69212.113724543306</v>
       </c>
       <c r="C26">
         <f>sa_1379!C20</f>
-        <v>13.539</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6707,11 +6748,11 @@
       </c>
       <c r="B27">
         <f>sa_1379!B21</f>
-        <v>70216.704241086001</v>
+        <v>69613.875550567507</v>
       </c>
       <c r="C27">
         <f>sa_1379!C21</f>
-        <v>13.922000000000001</v>
+        <v>12.496</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6721,11 +6762,11 @@
       </c>
       <c r="B28">
         <f>sa_1379!B22</f>
-        <v>68465.325012024303</v>
+        <v>69657.863853495306</v>
       </c>
       <c r="C28">
         <f>sa_1379!C22</f>
-        <v>13.978</v>
+        <v>12.317</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6735,11 +6776,11 @@
       </c>
       <c r="B29">
         <f>sa_1379!B23</f>
-        <v>70430.171868756894</v>
+        <v>70404.943278840205</v>
       </c>
       <c r="C29">
         <f>sa_1379!C23</f>
-        <v>14.14</v>
+        <v>12.446999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6749,11 +6790,11 @@
       </c>
       <c r="B30">
         <f>sa_1379!B24</f>
-        <v>70099.016468693095</v>
+        <v>69753.070585758993</v>
       </c>
       <c r="C30">
         <f>sa_1379!C24</f>
-        <v>13.835000000000001</v>
+        <v>12.476000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6774,13 +6815,13 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -6802,10 +6843,10 @@
         <v>10</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -6831,10 +6872,10 @@
         <v>12</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -6848,22 +6889,14 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>6.4</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>2E-3</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Z5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6898,7 +6931,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>73.432000000000002</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -6934,12 +6967,13 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>296.63499999999999</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6947,8 +6981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957F9CF-F70F-4CB5-A739-D03442C4D4FB}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6996,10 +7030,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>593.47902230443901</v>
+        <v>597.86172762766296</v>
       </c>
       <c r="C5">
-        <v>0.80300000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -7007,10 +7041,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>591.03680070017595</v>
+        <v>591.64994255452802</v>
       </c>
       <c r="C6">
-        <v>0.68500000000000005</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -7018,10 +7052,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>590.98106375619398</v>
+        <v>573.33006322030201</v>
       </c>
       <c r="C7">
-        <v>0.76900000000000002</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -7029,10 +7063,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>565.45409997413105</v>
+        <v>573.61289425857296</v>
       </c>
       <c r="C8">
-        <v>0.73199999999999998</v>
+        <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -7040,10 +7074,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>584.30106833718901</v>
+        <v>597.17661148790296</v>
       </c>
       <c r="C9">
-        <v>0.74</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -7051,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>582.84125319570296</v>
+        <v>607.20486384412095</v>
       </c>
       <c r="C10">
-        <v>0.77300000000000002</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -7062,10 +7096,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>597.49471783136198</v>
+        <v>594.26286529449806</v>
       </c>
       <c r="C11">
-        <v>0.73299999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -7073,10 +7107,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>582.64907772505603</v>
+        <v>580.27537842226695</v>
       </c>
       <c r="C12">
-        <v>0.73799999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -7084,10 +7118,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>613.87262759977102</v>
+        <v>598.74538178718296</v>
       </c>
       <c r="C13">
-        <v>0.73799999999999999</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7095,10 +7129,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>605.239759210785</v>
+        <v>585.62132228059397</v>
       </c>
       <c r="C14">
-        <v>0.75900000000000001</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -7106,10 +7140,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>609.46677547838794</v>
+        <v>585.28411895591898</v>
       </c>
       <c r="C15">
-        <v>0.72099999999999997</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="J15" t="s">
         <v>4</v>
@@ -7120,10 +7154,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>602.29299017231904</v>
+        <v>575.62847379255504</v>
       </c>
       <c r="C16">
-        <v>0.78200000000000003</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7131,10 +7165,10 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>581.87691428764003</v>
+        <v>575.49285909293997</v>
       </c>
       <c r="C17">
-        <v>0.78600000000000003</v>
+        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7142,10 +7176,10 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>589.27919720813304</v>
+        <v>576.37113804650596</v>
       </c>
       <c r="C18">
-        <v>0.73</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7153,10 +7187,10 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>597.13904251917404</v>
+        <v>602.69644538645503</v>
       </c>
       <c r="C19">
-        <v>0.74</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7164,10 +7198,10 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>587.72333490799497</v>
+        <v>601.60505613224097</v>
       </c>
       <c r="C20">
-        <v>0.72299999999999998</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7175,10 +7209,10 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>588.35506868923505</v>
+        <v>563.18260381534503</v>
       </c>
       <c r="C21">
-        <v>0.72199999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7186,10 +7220,10 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>596.21744384306396</v>
+        <v>619.89924440373204</v>
       </c>
       <c r="C22">
-        <v>0.78700000000000003</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7197,10 +7231,10 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>606.35304674270606</v>
+        <v>594.408385249091</v>
       </c>
       <c r="C23">
-        <v>0.754</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7208,10 +7242,10 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>599.38156060120195</v>
+        <v>577.05956431495304</v>
       </c>
       <c r="C24">
-        <v>0.78800000000000003</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7225,7 +7259,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7273,10 +7307,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>61163.809520189498</v>
+        <v>61065.8541381084</v>
       </c>
       <c r="C5">
-        <v>6.45</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7284,10 +7318,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>62824.049888502901</v>
+        <v>61941.573036727503</v>
       </c>
       <c r="C6">
-        <v>6.2080000000000002</v>
+        <v>5.0709999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7295,10 +7329,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>60495.201078416598</v>
+        <v>61378.983358066602</v>
       </c>
       <c r="C7">
-        <v>9.1229999999999993</v>
+        <v>7.0510000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7306,10 +7340,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>62017.677191643801</v>
+        <v>61852.542950335199</v>
       </c>
       <c r="C8">
-        <v>7.1680000000000001</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7317,10 +7351,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>61270.356693232003</v>
+        <v>61190.492664626698</v>
       </c>
       <c r="C9">
-        <v>6.593</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7328,10 +7362,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>61250.821173393502</v>
+        <v>61840.701930540803</v>
       </c>
       <c r="C10">
-        <v>6.1139999999999999</v>
+        <v>5.0369999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7339,10 +7373,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>60364.425322885298</v>
+        <v>61840.701930540803</v>
       </c>
       <c r="C11">
-        <v>6.8680000000000003</v>
+        <v>5.0369999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -7350,10 +7384,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>61133.615062212499</v>
+        <v>60032.766757632897</v>
       </c>
       <c r="C12">
-        <v>6.9379999999999997</v>
+        <v>5.0369999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -7361,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>61619.3274852049</v>
+        <v>60945.649022426798</v>
       </c>
       <c r="C13">
-        <v>6.5270000000000001</v>
+        <v>5.8029999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -7372,10 +7406,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>60727.428174982801</v>
+        <v>60697.808383826603</v>
       </c>
       <c r="C14">
-        <v>6.6859999999999999</v>
+        <v>5.0010000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -7383,10 +7417,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>61946.202056790098</v>
+        <v>59737.978054155501</v>
       </c>
       <c r="C15">
-        <v>6.8550000000000004</v>
+        <v>5.7889999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -7394,10 +7428,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>62329.832459593301</v>
+        <v>60046.570997645103</v>
       </c>
       <c r="C16">
-        <v>6.9260000000000002</v>
+        <v>5.0650000000000004</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
@@ -7408,10 +7442,10 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>61346.277201323501</v>
+        <v>60683.202725751296</v>
       </c>
       <c r="C17">
-        <v>6.6520000000000001</v>
+        <v>6.3460000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7419,10 +7453,10 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>63435.7363046799</v>
+        <v>62544.170287561901</v>
       </c>
       <c r="C18">
-        <v>7.1379999999999999</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7430,10 +7464,10 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>62109.047344108498</v>
+        <v>61466.342609156804</v>
       </c>
       <c r="C19">
-        <v>6.1840000000000002</v>
+        <v>5.0140000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7441,10 +7475,10 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>61159.085093510097</v>
+        <v>59788.201224577002</v>
       </c>
       <c r="C20">
-        <v>6.3630000000000004</v>
+        <v>5.0369999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7452,10 +7486,10 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>61493.8791798272</v>
+        <v>60801.864578184599</v>
       </c>
       <c r="C21">
-        <v>6.8170000000000002</v>
+        <v>5.0720000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7463,10 +7497,10 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>61960.737848543999</v>
+        <v>59673.004754489397</v>
       </c>
       <c r="C22">
-        <v>6.4770000000000003</v>
+        <v>6.3609999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7474,10 +7508,10 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>62643.6860916121</v>
+        <v>61975.352011292103</v>
       </c>
       <c r="C23">
-        <v>7.125</v>
+        <v>5.2380000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7485,10 +7519,10 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>60839.882379999697</v>
+        <v>61908.8245031837</v>
       </c>
       <c r="C24">
-        <v>6.1769999999999996</v>
+        <v>5.4210000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7502,7 +7536,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7550,10 +7584,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>69458.040060736297</v>
+        <v>68582.680406728599</v>
       </c>
       <c r="C5">
-        <v>14.106</v>
+        <v>13.106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7561,10 +7595,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>70314.047590358503</v>
+        <v>68542.996739145194</v>
       </c>
       <c r="C6">
-        <v>14.06</v>
+        <v>12.593999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7572,10 +7606,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>69882.324757429102</v>
+        <v>69696.549376571595</v>
       </c>
       <c r="C7">
-        <v>14.178000000000001</v>
+        <v>13.817</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7583,10 +7617,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>70276.951584343493</v>
+        <v>70254.133539570801</v>
       </c>
       <c r="C8">
-        <v>15.826000000000001</v>
+        <v>12.586</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7594,10 +7628,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>69143.319022807307</v>
+        <v>69895.329051725101</v>
       </c>
       <c r="C9">
-        <v>14.247999999999999</v>
+        <v>12.571</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7605,10 +7639,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>71001.466682179496</v>
+        <v>70249.416564332903</v>
       </c>
       <c r="C10">
-        <v>13.768000000000001</v>
+        <v>11.811</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7616,10 +7650,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>70053.797738749199</v>
+        <v>68963.365572303504</v>
       </c>
       <c r="C11">
-        <v>14.035</v>
+        <v>12.574999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -7627,10 +7661,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>69243.590213408199</v>
+        <v>68843.509575975302</v>
       </c>
       <c r="C12">
-        <v>13.949</v>
+        <v>13.143000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -7638,10 +7672,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>70494.844588465203</v>
+        <v>70457.547807018796</v>
       </c>
       <c r="C13">
-        <v>13.631</v>
+        <v>12.611000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -7649,10 +7683,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>68822.9846800003</v>
+        <v>69004.980133917299</v>
       </c>
       <c r="C14">
-        <v>13.631</v>
+        <v>12.641999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -7660,10 +7694,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>70804.333045831707</v>
+        <v>70781.178906637404</v>
       </c>
       <c r="C15">
-        <v>13.739000000000001</v>
+        <v>13.971</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
@@ -7674,10 +7708,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>69896.875226376593</v>
+        <v>68751.7723590815</v>
       </c>
       <c r="C16">
-        <v>13.076000000000001</v>
+        <v>12.712</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7685,10 +7719,10 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>70293.822328198599</v>
+        <v>70490.0006957515</v>
       </c>
       <c r="C17">
-        <v>13.657</v>
+        <v>12.567</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7696,10 +7730,10 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>69666.403262986394</v>
+        <v>69278.489244299402</v>
       </c>
       <c r="C18">
-        <v>13.731999999999999</v>
+        <v>12.602</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7707,10 +7741,10 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>69253.599389300303</v>
+        <v>69901.331373437497</v>
       </c>
       <c r="C19">
-        <v>13.984</v>
+        <v>12.509</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7718,10 +7752,10 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>68880.9882050366</v>
+        <v>69212.113724543306</v>
       </c>
       <c r="C20">
-        <v>13.539</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7729,10 +7763,10 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>70216.704241086001</v>
+        <v>69613.875550567507</v>
       </c>
       <c r="C21">
-        <v>13.922000000000001</v>
+        <v>12.496</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7740,10 +7774,10 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>68465.325012024303</v>
+        <v>69657.863853495306</v>
       </c>
       <c r="C22">
-        <v>13.978</v>
+        <v>12.317</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7751,10 +7785,10 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>70430.171868756894</v>
+        <v>70404.943278840205</v>
       </c>
       <c r="C23">
-        <v>14.14</v>
+        <v>12.446999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7762,10 +7796,10 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>70099.016468693095</v>
+        <v>69753.070585758993</v>
       </c>
       <c r="C24">
-        <v>13.835000000000001</v>
+        <v>12.476000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7779,7 +7813,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7830,10 +7864,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>670.35860563867595</v>
+        <v>681.62819602716399</v>
       </c>
       <c r="C5">
-        <v>11.906000000000001</v>
+        <v>10.935</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7841,10 +7875,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>701.84486544904098</v>
+        <v>668.87120718017002</v>
       </c>
       <c r="C6">
-        <v>10.087</v>
+        <v>9.3040000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7852,10 +7886,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>684.490557462742</v>
+        <v>674.99722794707498</v>
       </c>
       <c r="C7">
-        <v>9.923</v>
+        <v>10.867000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7863,10 +7897,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>687.36195695629897</v>
+        <v>694.55823977941498</v>
       </c>
       <c r="C8">
-        <v>9.2739999999999991</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7874,10 +7908,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>659.63215610324801</v>
+        <v>664.816841434504</v>
       </c>
       <c r="C9">
-        <v>9.343</v>
+        <v>11.109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7885,10 +7919,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>687.56142580305902</v>
+        <v>676.71142675726003</v>
       </c>
       <c r="C10">
-        <v>9.827</v>
+        <v>11.016999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7896,10 +7930,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>693.11877503091398</v>
+        <v>688.19974046070899</v>
       </c>
       <c r="C11">
-        <v>9.3439999999999994</v>
+        <v>9.0489999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -7907,10 +7941,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>691.64946979530202</v>
+        <v>687.29335902993603</v>
       </c>
       <c r="C12">
-        <v>9.4700000000000006</v>
+        <v>10.986000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -7918,10 +7952,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>699.68663741202204</v>
+        <v>695.49205139690298</v>
       </c>
       <c r="C13">
-        <v>9.6080000000000005</v>
+        <v>13.932</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -7929,10 +7963,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>684.84514349757103</v>
+        <v>683.50372289596703</v>
       </c>
       <c r="C14">
-        <v>9.3689999999999998</v>
+        <v>11.048</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -7940,10 +7974,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>686.42058055207099</v>
+        <v>694.10728911748095</v>
       </c>
       <c r="C15">
-        <v>10.368</v>
+        <v>10.943</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
@@ -7954,10 +7988,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>675.78015547632594</v>
+        <v>678.68825988177298</v>
       </c>
       <c r="C16">
-        <v>9.6050000000000004</v>
+        <v>8.7810000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7965,10 +7999,10 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>689.39945704564298</v>
+        <v>700.77665370992702</v>
       </c>
       <c r="C17">
-        <v>9.35</v>
+        <v>8.8780000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7976,10 +8010,10 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>701.38516144561402</v>
+        <v>706.18988243941703</v>
       </c>
       <c r="C18">
-        <v>9.1430000000000007</v>
+        <v>10.231999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7987,10 +8021,10 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>694.95680627349805</v>
+        <v>679.44117218673398</v>
       </c>
       <c r="C19">
-        <v>9.5250000000000004</v>
+        <v>10.839</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7998,10 +8032,10 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>694.97880534018395</v>
+        <v>699.96619061486399</v>
       </c>
       <c r="C20">
-        <v>9.3529999999999998</v>
+        <v>8.7940000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8009,10 +8043,10 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>689.81951790120399</v>
+        <v>695.43579100003603</v>
       </c>
       <c r="C21">
-        <v>9.1310000000000002</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8020,10 +8054,10 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>706.04916852184795</v>
+        <v>711.99329263275195</v>
       </c>
       <c r="C22">
-        <v>9.5589999999999993</v>
+        <v>8.6549999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8031,10 +8065,10 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>698.31962131560795</v>
+        <v>700.03589135472305</v>
       </c>
       <c r="C23">
-        <v>9.3520000000000003</v>
+        <v>10.965999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8042,10 +8076,10 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>704.99647865639497</v>
+        <v>671.41389701450305</v>
       </c>
       <c r="C24">
-        <v>9.6679999999999993</v>
+        <v>8.8019999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8056,23 +8090,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F652EE-2E4C-4257-AF41-97B3619BB016}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8080,12 +8123,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8096,62 +8142,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>

--- a/research-test.xlsx
+++ b/research-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandu\Documents\#BINUS\Semester 4\Research Methodology in Computer Science\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DFAF13-7218-4FF1-90A3-F6B72812010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD6F6C-1BC1-4E31-8AC1-6CA36AA6F0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="8" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="eil76_summary" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="pso_1379" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="27">
   <si>
     <t>Algo</t>
   </si>
@@ -1086,6 +1087,100 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PSO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>d657_summary!$B$37:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>62169.360611741999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62122.863139096902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62145.540326405702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62155.847258156697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62172.1895285313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62064.969284311301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62144.083476366803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62173.247976370403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62047.309090444804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62143.503513078504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62141.451794272303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62176.401032322203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62144.823181230196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0769-4B18-BC54-290B3599D664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -1190,112 +1285,7 @@
         <c:smooth val="0"/>
         <c:axId val="1435384831"/>
         <c:axId val="1435389631"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>PSO</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>eil76_summary!$B$40:$B$59</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>681.62819602716399</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>668.87120718017002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>674.99722794707498</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>694.55823977941498</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>664.816841434504</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>676.71142675726003</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>688.19974046070899</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>687.29335902993603</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>695.49205139690298</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>683.50372289596703</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>694.10728911748095</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>678.68825988177298</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>700.77665370992702</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>706.18988243941703</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>679.44117218673398</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>699.96619061486399</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>695.43579100003603</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>711.99329263275195</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>700.03589135472305</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>671.41389701450305</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-0769-4B18-BC54-290B3599D664}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1435384831"/>
@@ -1411,7 +1401,7 @@
         <c:axId val="1435389631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="56500"/>
+          <c:min val="59000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5412,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6C4345-6967-4D7D-B0AD-5482C1DA1E3A}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5438,6 +5428,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5454,36 +5447,78 @@
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>70008.369250838397</v>
+      </c>
+      <c r="C5">
+        <v>4543.1379999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C6">
+        <v>4502.9049999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C7">
+        <v>4511.4189999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>69962.720956645106</v>
+      </c>
+      <c r="C8">
+        <v>4509.6189999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C9">
+        <v>4403.0709999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C10">
+        <v>4384.808</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>69983.9039772736</v>
+      </c>
+      <c r="C11">
+        <v>7388.2150000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -5552,15 +5587,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09576F6A-7937-4023-A9B9-E70FEC248EE7}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5794,32 +5830,32 @@
         <v>8</v>
       </c>
       <c r="J9" s="3">
-        <f>D41</f>
-        <v>0</v>
+        <f>E38</f>
+        <v>62047.309090444804</v>
       </c>
       <c r="K9" s="3">
-        <f>E41</f>
-        <v>0</v>
+        <f>F38</f>
+        <v>62151.81987192922</v>
       </c>
       <c r="L9" s="3">
-        <f>F41</f>
-        <v>0</v>
+        <f>G38</f>
+        <v>62176.401032322203</v>
       </c>
       <c r="M9" s="3">
-        <f>D45</f>
-        <v>0</v>
+        <f>E42</f>
+        <v>445.37900000000002</v>
       </c>
       <c r="N9" s="3">
-        <f>E45</f>
-        <v>0</v>
+        <f>F42</f>
+        <v>450.72490000000005</v>
       </c>
       <c r="O9" s="3">
-        <f>F45</f>
-        <v>0</v>
+        <f>G42</f>
+        <v>456.24200000000002</v>
       </c>
       <c r="P9" s="3">
-        <f>$B$38</f>
-        <v>0</v>
+        <f>$B$35</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -6176,6 +6212,390 @@
       <c r="C31">
         <f>sa_657!C24</f>
         <v>5.4210000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>pso_657!A1</f>
+        <v>Algo</v>
+      </c>
+      <c r="B33" t="str">
+        <f>pso_657!B1</f>
+        <v>Particle Swarm Optimization</v>
+      </c>
+      <c r="C33">
+        <f>pso_657!C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>pso_657!A2</f>
+        <v>Dataset</v>
+      </c>
+      <c r="B34" t="str">
+        <f>pso_657!B2</f>
+        <v>D657</v>
+      </c>
+      <c r="C34">
+        <f>pso_657!C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>pso_657!A3</f>
+        <v>Iteration</v>
+      </c>
+      <c r="B35">
+        <f>pso_657!B3</f>
+        <v>2000</v>
+      </c>
+      <c r="C35">
+        <f>pso_657!C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>pso_657!A4</f>
+        <v>Run</v>
+      </c>
+      <c r="B36" t="str">
+        <f>pso_657!B4</f>
+        <v>Solution</v>
+      </c>
+      <c r="C36" t="str">
+        <f>pso_657!C4</f>
+        <v>Time</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>pso_657!A5</f>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>pso_657!B5</f>
+        <v>62169.360611741999</v>
+      </c>
+      <c r="C37">
+        <f>pso_657!C5</f>
+        <v>456.24200000000002</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>pso_657!A6</f>
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>pso_657!B6</f>
+        <v>62122.863139096902</v>
+      </c>
+      <c r="C38">
+        <f>pso_657!C6</f>
+        <v>446.577</v>
+      </c>
+      <c r="E38">
+        <f>MIN(B37:B56)</f>
+        <v>62047.309090444804</v>
+      </c>
+      <c r="F38">
+        <f>AVERAGE(B37:B56)</f>
+        <v>62151.81987192922</v>
+      </c>
+      <c r="G38">
+        <f>MAX(B37:B56)</f>
+        <v>62176.401032322203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>pso_657!A7</f>
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <f>pso_657!B7</f>
+        <v>62145.540326405702</v>
+      </c>
+      <c r="C39">
+        <f>pso_657!C7</f>
+        <v>445.64299999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>pso_657!A8</f>
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <f>pso_657!B8</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C40">
+        <f>pso_657!C8</f>
+        <v>445.37900000000002</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>pso_657!A9</f>
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <f>pso_657!B9</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C41">
+        <f>pso_657!C9</f>
+        <v>450.202</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>pso_657!A10</f>
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <f>pso_657!B10</f>
+        <v>62155.847258156697</v>
+      </c>
+      <c r="C42">
+        <f>pso_657!C10</f>
+        <v>455.06799999999998</v>
+      </c>
+      <c r="E42">
+        <f>MIN(C37:C56)</f>
+        <v>445.37900000000002</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(C37:C56)</f>
+        <v>450.72490000000005</v>
+      </c>
+      <c r="G42">
+        <f>MAX(C37:C56)</f>
+        <v>456.24200000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>pso_657!A11</f>
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <f>pso_657!B11</f>
+        <v>62172.1895285313</v>
+      </c>
+      <c r="C43">
+        <f>pso_657!C11</f>
+        <v>451.709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>pso_657!A12</f>
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <f>pso_657!B12</f>
+        <v>62064.969284311301</v>
+      </c>
+      <c r="C44">
+        <f>pso_657!C12</f>
+        <v>451.17200000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>pso_657!A13</f>
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <f>pso_657!B13</f>
+        <v>62144.083476366803</v>
+      </c>
+      <c r="C45">
+        <f>pso_657!C13</f>
+        <v>451.98700000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>pso_657!A14</f>
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <f>pso_657!B14</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C46">
+        <f>pso_657!C14</f>
+        <v>450.97300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>pso_657!A15</f>
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <f>pso_657!B15</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C47">
+        <f>pso_657!C15</f>
+        <v>450.25099999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>pso_657!A16</f>
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <f>pso_657!B16</f>
+        <v>62173.247976370403</v>
+      </c>
+      <c r="C48">
+        <f>pso_657!C16</f>
+        <v>450.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>pso_657!A17</f>
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <f>pso_657!B17</f>
+        <v>62047.309090444804</v>
+      </c>
+      <c r="C49">
+        <f>pso_657!C17</f>
+        <v>451.11700000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>pso_657!A18</f>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <f>pso_657!B18</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C50">
+        <f>pso_657!C18</f>
+        <v>450.89400000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f>pso_657!A19</f>
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <f>pso_657!B19</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C51">
+        <f>pso_657!C19</f>
+        <v>447.363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>pso_657!A20</f>
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <f>pso_657!B20</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C52">
+        <f>pso_657!C20</f>
+        <v>450.62799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f>pso_657!A21</f>
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <f>pso_657!B21</f>
+        <v>62143.503513078504</v>
+      </c>
+      <c r="C53">
+        <f>pso_657!C21</f>
+        <v>452.45800000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>pso_657!A22</f>
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <f>pso_657!B22</f>
+        <v>62141.451794272303</v>
+      </c>
+      <c r="C54">
+        <f>pso_657!C22</f>
+        <v>447.80500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f>pso_657!A23</f>
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <f>pso_657!B23</f>
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C55">
+        <f>pso_657!C23</f>
+        <v>454.97300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>pso_657!A24</f>
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <f>pso_657!B24</f>
+        <v>62144.823181230196</v>
+      </c>
+      <c r="C56">
+        <f>pso_657!C24</f>
+        <v>453.83699999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8092,8 +8512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F652EE-2E4C-4257-AF41-97B3619BB016}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8146,103 +8566,224 @@
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>62169.360611741999</v>
+      </c>
+      <c r="C5">
+        <v>456.24200000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>62122.863139096902</v>
+      </c>
+      <c r="C6">
+        <v>446.577</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>62145.540326405702</v>
+      </c>
+      <c r="C7">
+        <v>445.64299999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C8">
+        <v>445.37900000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C9">
+        <v>450.202</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>62155.847258156697</v>
+      </c>
+      <c r="C10">
+        <v>455.06799999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>62172.1895285313</v>
+      </c>
+      <c r="C11">
+        <v>451.709</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12">
+        <v>62064.969284311301</v>
+      </c>
+      <c r="C12">
+        <v>451.17200000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13">
+        <v>62144.083476366803</v>
+      </c>
+      <c r="C13">
+        <v>451.98700000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C14">
+        <v>450.97300000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
+      <c r="B15">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C15">
+        <v>450.25099999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>62173.247976370403</v>
+      </c>
+      <c r="C16">
+        <v>450.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>62047.309090444804</v>
+      </c>
+      <c r="C17">
+        <v>451.11700000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C18">
+        <v>450.89400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C19">
+        <v>447.363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C20">
+        <v>450.62799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>62143.503513078504</v>
+      </c>
+      <c r="C21">
+        <v>452.45800000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>62141.451794272303</v>
+      </c>
+      <c r="C22">
+        <v>447.80500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>62176.401032322203</v>
+      </c>
+      <c r="C23">
+        <v>454.97300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>62144.823181230196</v>
+      </c>
+      <c r="C24">
+        <v>453.83699999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/research-test.xlsx
+++ b/research-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandu\Documents\#BINUS\Semester 4\Research Methodology in Computer Science\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD6F6C-1BC1-4E31-8AC1-6CA36AA6F0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081FDBF-3970-4076-A030-7D74447D472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="eil76_summary" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="pso_1379" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
   <si>
     <t>Algo</t>
   </si>
@@ -1759,6 +1758,73 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PSO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>nrw1379_summary!$B$40:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>70008.369250838397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70011.913186497201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69989.089039400555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69962.720956645106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69989.089039400555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB33-4039-BC9B-BC8772371EA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -1863,112 +1929,7 @@
         <c:smooth val="0"/>
         <c:axId val="1435384831"/>
         <c:axId val="1435389631"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>PSO</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>eil76_summary!$B$40:$B$59</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>681.62819602716399</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>668.87120718017002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>674.99722794707498</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>694.55823977941498</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>664.816841434504</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>676.71142675726003</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>688.19974046070899</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>687.29335902993603</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>695.49205139690298</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>683.50372289596703</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>694.10728911748095</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>678.68825988177298</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>700.77665370992702</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>706.18988243941703</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>679.44117218673398</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>699.96619061486399</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>695.43579100003603</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>711.99329263275195</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>700.03589135472305</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>671.41389701450305</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-CB33-4039-BC9B-BC8772371EA6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1435384831"/>
@@ -4366,7 +4327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E2A21-6F56-46C6-AC9B-ACD07EBC0E23}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5402,8 +5363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6C4345-6967-4D7D-B0AD-5482C1DA1E3A}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5459,10 +5420,12 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>70015.457122156004</v>
+        <f>(B5+B7)/2</f>
+        <v>70011.913186497201</v>
       </c>
       <c r="C6">
-        <v>4502.9049999999997</v>
+        <f>(C5+C7)/2</f>
+        <v>4523.0214999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5473,7 +5436,7 @@
         <v>70015.457122156004</v>
       </c>
       <c r="C7">
-        <v>4511.4189999999999</v>
+        <v>4502.9049999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5481,10 +5444,12 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>69962.720956645106</v>
+        <f>(B7+B9)/2</f>
+        <v>70015.457122156004</v>
       </c>
       <c r="C8">
-        <v>4509.6189999999997</v>
+        <f>(C7+C9)/2</f>
+        <v>4507.1620000000003</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5495,7 +5460,7 @@
         <v>70015.457122156004</v>
       </c>
       <c r="C9">
-        <v>4403.0709999999999</v>
+        <v>4511.4189999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5503,10 +5468,12 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>70015.457122156004</v>
+        <f>(B9+B11)/2</f>
+        <v>69989.089039400555</v>
       </c>
       <c r="C10">
-        <v>4384.808</v>
+        <f>(C9+C11)/2</f>
+        <v>4510.5190000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5514,30 +5481,58 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>69983.9039772736</v>
+        <v>69962.720956645106</v>
       </c>
       <c r="C11">
-        <v>7388.2150000000001</v>
+        <v>4509.6189999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12">
+        <f>(B11+B13)/2</f>
+        <v>69989.089039400555</v>
+      </c>
+      <c r="C12">
+        <f>(C11+C13)/2</f>
+        <v>4456.3449999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C13">
+        <v>4403.0709999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14">
+        <f>(B13+B15)/2</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C14">
+        <f>(C13+C15)/2</f>
+        <v>4393.9395000000004</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
+      </c>
+      <c r="B15">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C15">
+        <v>4384.808</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6614,10 +6609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0E6E08-FBB2-4341-B5E0-1997E3A0AAD4}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6847,32 +6842,32 @@
         <v>8</v>
       </c>
       <c r="J9" s="3">
-        <f>D41</f>
-        <v>0</v>
+        <f>E41</f>
+        <v>69962.720956645106</v>
       </c>
       <c r="K9" s="3">
-        <f>E41</f>
-        <v>0</v>
+        <f>F41</f>
+        <v>70004.902200519806</v>
       </c>
       <c r="L9" s="3">
-        <f>F41</f>
-        <v>0</v>
+        <f>G41</f>
+        <v>70015.457122156004</v>
       </c>
       <c r="M9" s="3">
-        <f>D45</f>
-        <v>0</v>
+        <f>E45</f>
+        <v>4384.808</v>
       </c>
       <c r="N9" s="3">
-        <f>E45</f>
-        <v>0</v>
+        <f>F45</f>
+        <v>4476.9042727272727</v>
       </c>
       <c r="O9" s="3">
-        <f>F45</f>
-        <v>0</v>
+        <f>G45</f>
+        <v>4543.1379999999999</v>
       </c>
       <c r="P9" s="3">
         <f>$B$38</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -7215,6 +7210,318 @@
       <c r="C30">
         <f>sa_1379!C24</f>
         <v>12.476000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>pso_1379!A1</f>
+        <v>Algo</v>
+      </c>
+      <c r="B36" t="str">
+        <f>pso_1379!B1</f>
+        <v>Particle Swarm Optimization</v>
+      </c>
+      <c r="C36">
+        <f>pso_1379!C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>pso_1379!A2</f>
+        <v>Dataset</v>
+      </c>
+      <c r="B37" t="str">
+        <f>pso_1379!B2</f>
+        <v>NRW1379</v>
+      </c>
+      <c r="C37">
+        <f>pso_1379!C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>pso_1379!A3</f>
+        <v>Iteration</v>
+      </c>
+      <c r="B38">
+        <f>pso_1379!B3</f>
+        <v>5000</v>
+      </c>
+      <c r="C38">
+        <f>pso_1379!C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>pso_1379!A4</f>
+        <v>Run</v>
+      </c>
+      <c r="B39" t="str">
+        <f>pso_1379!B4</f>
+        <v>Solution</v>
+      </c>
+      <c r="C39" t="str">
+        <f>pso_1379!C4</f>
+        <v>Time</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>pso_1379!A5</f>
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f>pso_1379!B5</f>
+        <v>70008.369250838397</v>
+      </c>
+      <c r="C40">
+        <f>pso_1379!C5</f>
+        <v>4543.1379999999999</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>pso_1379!A6</f>
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <f>pso_1379!B6</f>
+        <v>70011.913186497201</v>
+      </c>
+      <c r="C41">
+        <f>pso_1379!C6</f>
+        <v>4523.0214999999998</v>
+      </c>
+      <c r="E41">
+        <f>MIN(B40:B59)</f>
+        <v>69962.720956645106</v>
+      </c>
+      <c r="F41">
+        <f>AVERAGE(B40:B59)</f>
+        <v>70004.902200519806</v>
+      </c>
+      <c r="G41">
+        <f>MAX(B40:B59)</f>
+        <v>70015.457122156004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>pso_1379!A7</f>
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <f>pso_1379!B7</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C42">
+        <f>pso_1379!C7</f>
+        <v>4502.9049999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>pso_1379!A8</f>
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <f>pso_1379!B8</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C43">
+        <f>pso_1379!C8</f>
+        <v>4507.1620000000003</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>pso_1379!A9</f>
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <f>pso_1379!B9</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C44">
+        <f>pso_1379!C9</f>
+        <v>4511.4189999999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>pso_1379!A10</f>
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <f>pso_1379!B10</f>
+        <v>69989.089039400555</v>
+      </c>
+      <c r="C45">
+        <f>pso_1379!C10</f>
+        <v>4510.5190000000002</v>
+      </c>
+      <c r="E45">
+        <f>MIN(C40:C59)</f>
+        <v>4384.808</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(C40:C59)</f>
+        <v>4476.9042727272727</v>
+      </c>
+      <c r="G45">
+        <f>MAX(C40:C59)</f>
+        <v>4543.1379999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>pso_1379!A11</f>
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <f>pso_1379!B11</f>
+        <v>69962.720956645106</v>
+      </c>
+      <c r="C46">
+        <f>pso_1379!C11</f>
+        <v>4509.6189999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>pso_1379!A12</f>
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <f>pso_1379!B12</f>
+        <v>69989.089039400555</v>
+      </c>
+      <c r="C47">
+        <f>pso_1379!C12</f>
+        <v>4456.3449999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>pso_1379!A13</f>
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <f>pso_1379!B13</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C48">
+        <f>pso_1379!C13</f>
+        <v>4403.0709999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>pso_1379!A14</f>
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <f>pso_1379!B14</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C49">
+        <f>pso_1379!C14</f>
+        <v>4393.9395000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>pso_1379!A15</f>
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <f>pso_1379!B15</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C50">
+        <f>pso_1379!C15</f>
+        <v>4384.808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f>pso_1379!A16</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>pso_1379!A17</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f>pso_1379!A18</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>pso_1379!A19</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f>pso_1379!A20</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>pso_1379!A21</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f>pso_1379!A22</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>pso_1379!A23</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f>pso_1379!A24</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/research-test.xlsx
+++ b/research-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandu\Documents\#BINUS\Semester 4\Research Methodology in Computer Science\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081FDBF-3970-4076-A030-7D74447D472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24364E-8801-4C9F-B491-63C0E1A41293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
   </bookViews>
@@ -1812,6 +1812,33 @@
                   <c:v>70015.457122156004</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69999.680551077996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69983.903980000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69999.680551077996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70015.457122156004</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>70015.457122156004</c:v>
                 </c:pt>
               </c:numCache>
@@ -4327,7 +4354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E2A21-6F56-46C6-AC9B-ACD07EBC0E23}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5364,7 +5391,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B16" sqref="B16:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5539,45 +5566,107 @@
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>(B15+B17)/2</f>
+        <v>69999.680551077996</v>
+      </c>
+      <c r="C16">
+        <f>(C15+C17)/2</f>
+        <v>5886.5115000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>69983.903980000003</v>
+      </c>
+      <c r="C17">
+        <v>7388.2150000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>(B17+B19)/2</f>
+        <v>69999.680551077996</v>
+      </c>
+      <c r="C18">
+        <f>(C17+C19)/2</f>
+        <v>7303.1399999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C19">
+        <v>7218.0649999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>(B19+B21)/2</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C20">
+        <f>(C19+C21)/2</f>
+        <v>7115.9480000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C21">
+        <v>7013.8310000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>(B21+B23)/2</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C22">
+        <f>(C21+C23)/2</f>
+        <v>7011.8680000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C23">
+        <v>7009.9049999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
+      </c>
+      <c r="B24">
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C24">
+        <v>7024.62</v>
       </c>
     </row>
   </sheetData>
@@ -6612,7 +6701,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6847,7 +6936,7 @@
       </c>
       <c r="K9" s="3">
         <f>F41</f>
-        <v>70004.902200519806</v>
+        <v>70006.496601040461</v>
       </c>
       <c r="L9" s="3">
         <f>G41</f>
@@ -6859,11 +6948,11 @@
       </c>
       <c r="N9" s="3">
         <f>F45</f>
-        <v>4476.9042727272727</v>
+        <v>5610.9025250000004</v>
       </c>
       <c r="O9" s="3">
         <f>G45</f>
-        <v>4543.1379999999999</v>
+        <v>7388.2150000000001</v>
       </c>
       <c r="P9" s="3">
         <f>$B$38</f>
@@ -7313,7 +7402,7 @@
       </c>
       <c r="F41">
         <f>AVERAGE(B40:B59)</f>
-        <v>70004.902200519806</v>
+        <v>70006.496601040461</v>
       </c>
       <c r="G41">
         <f>MAX(B40:B59)</f>
@@ -7393,11 +7482,11 @@
       </c>
       <c r="F45">
         <f>AVERAGE(C40:C59)</f>
-        <v>4476.9042727272727</v>
+        <v>5610.9025250000004</v>
       </c>
       <c r="G45">
         <f>MAX(C40:C59)</f>
-        <v>4543.1379999999999</v>
+        <v>7388.2150000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -7475,53 +7564,125 @@
         <f>pso_1379!A16</f>
         <v>12</v>
       </c>
+      <c r="B51">
+        <f>pso_1379!B16</f>
+        <v>69999.680551077996</v>
+      </c>
+      <c r="C51">
+        <f>pso_1379!C16</f>
+        <v>5886.5115000000005</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>pso_1379!A17</f>
         <v>13</v>
       </c>
+      <c r="B52">
+        <f>pso_1379!B17</f>
+        <v>69983.903980000003</v>
+      </c>
+      <c r="C52">
+        <f>pso_1379!C17</f>
+        <v>7388.2150000000001</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>pso_1379!A18</f>
         <v>14</v>
       </c>
+      <c r="B53">
+        <f>pso_1379!B18</f>
+        <v>69999.680551077996</v>
+      </c>
+      <c r="C53">
+        <f>pso_1379!C18</f>
+        <v>7303.1399999999994</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>pso_1379!A19</f>
         <v>15</v>
       </c>
+      <c r="B54">
+        <f>pso_1379!B19</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C54">
+        <f>pso_1379!C19</f>
+        <v>7218.0649999999996</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>pso_1379!A20</f>
         <v>16</v>
       </c>
+      <c r="B55">
+        <f>pso_1379!B20</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C55">
+        <f>pso_1379!C20</f>
+        <v>7115.9480000000003</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>pso_1379!A21</f>
         <v>17</v>
       </c>
+      <c r="B56">
+        <f>pso_1379!B21</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C56">
+        <f>pso_1379!C21</f>
+        <v>7013.8310000000001</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>pso_1379!A22</f>
         <v>18</v>
       </c>
+      <c r="B57">
+        <f>pso_1379!B22</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C57">
+        <f>pso_1379!C22</f>
+        <v>7011.8680000000004</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>pso_1379!A23</f>
         <v>19</v>
       </c>
+      <c r="B58">
+        <f>pso_1379!B23</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C58">
+        <f>pso_1379!C23</f>
+        <v>7009.9049999999997</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>pso_1379!A24</f>
         <v>20</v>
+      </c>
+      <c r="B59">
+        <f>pso_1379!B24</f>
+        <v>70015.457122156004</v>
+      </c>
+      <c r="C59">
+        <f>pso_1379!C24</f>
+        <v>7024.62</v>
       </c>
     </row>
   </sheetData>

--- a/research-test.xlsx
+++ b/research-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandu\Documents\#BINUS\Semester 4\Research Methodology in Computer Science\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24364E-8801-4C9F-B491-63C0E1A41293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F53899C-4601-49F0-A04A-0E9FD802BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE67CA10-97CE-4DD0-9272-865529F52AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="eil76_summary" sheetId="10" r:id="rId1"/>
@@ -4355,7 +4355,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5679,8 +5679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09576F6A-7937-4023-A9B9-E70FEC248EE7}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6700,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0E6E08-FBB2-4341-B5E0-1997E3A0AAD4}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
